--- a/5. cvičenie/Excel_CV.xlsx
+++ b/5. cvičenie/Excel_CV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamko/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamko/Desktop/mip/5. cvičenie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FDB8F05-4B2B-F941-A608-F7F74651977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86474B9D-F57B-4A48-A894-916BF2AA3361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{17AF4EE6-7912-9046-A574-0EF565864DB1}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="sucet">Hárok1!$C$12</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,9 +133,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -156,374 +153,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="sk-SK"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Leading</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> countries based on Facebook audience size as of July 2020</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sk-SK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hárok1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Number of users</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hárok1!$B$2:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>India</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Indonesia</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brazil</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mexico</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Philippines</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Vietnam</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Thailand</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Egypt</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Bangladesh</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hárok1!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>329.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>179.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>129.85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>82.85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50.05</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CECE-4B44-BE62-196BC8265B1D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="619956736"/>
-        <c:axId val="619958384"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="619956736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="619958384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="619958384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sk-SK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="619956736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sk-SK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="sk-SK"/>
@@ -931,46 +560,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -1476,553 +1065,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graf 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECB2722-0E05-214E-C047-DB2F92B2E68F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2365,7 +1408,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2399,8 +1442,8 @@
       <c r="C2" s="3">
         <v>329.65</v>
       </c>
-      <c r="D2" s="4">
-        <f>C2/sucet*100</f>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D11" si="0">C2/sucet*100</f>
         <v>28.97894598039646</v>
       </c>
     </row>
@@ -2414,8 +1457,8 @@
       <c r="C3" s="3">
         <v>179.65</v>
       </c>
-      <c r="D3" s="4">
-        <f>C3/sucet*100</f>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
         <v>15.792712408245791</v>
       </c>
     </row>
@@ -2429,8 +1472,8 @@
       <c r="C4" s="3">
         <v>129.85</v>
       </c>
-      <c r="D4" s="4">
-        <f>C4/sucet*100</f>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
         <v>11.414882862291766</v>
       </c>
     </row>
@@ -2444,8 +1487,8 @@
       <c r="C5" s="3">
         <v>116</v>
       </c>
-      <c r="D5" s="4">
-        <f>C5/sucet*100</f>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
         <v>10.197353962463186</v>
       </c>
     </row>
@@ -2459,8 +1502,8 @@
       <c r="C6" s="3">
         <v>89.7</v>
       </c>
-      <c r="D6" s="4">
-        <f>C6/sucet*100</f>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
         <v>7.8853676761461031</v>
       </c>
     </row>
@@ -2474,8 +1517,8 @@
       <c r="C7" s="3">
         <v>82.85</v>
       </c>
-      <c r="D7" s="4">
-        <f>C7/sucet*100</f>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
         <v>7.2831963430178881</v>
       </c>
     </row>
@@ -2489,8 +1532,8 @@
       <c r="C8" s="3">
         <v>70.400000000000006</v>
       </c>
-      <c r="D8" s="4">
-        <f>C8/sucet*100</f>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
         <v>6.1887389565293827</v>
       </c>
     </row>
@@ -2504,8 +1547,8 @@
       <c r="C9" s="3">
         <v>50.05</v>
       </c>
-      <c r="D9" s="4">
-        <f>C9/sucet*100</f>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
         <v>4.3998066019076081</v>
       </c>
     </row>
@@ -2519,8 +1562,8 @@
       <c r="C10" s="3">
         <v>44.7</v>
       </c>
-      <c r="D10" s="4">
-        <f>C10/sucet*100</f>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
         <v>3.9294976045009005</v>
       </c>
     </row>
@@ -2534,8 +1577,8 @@
       <c r="C11" s="3">
         <v>44.7</v>
       </c>
-      <c r="D11" s="4">
-        <f>C11/sucet*100</f>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
         <v>3.9294976045009005</v>
       </c>
     </row>
@@ -2548,7 +1591,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
